--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,11 +6055,11 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/07/2022</t>
+          <t>11/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,11 +6103,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -9743,7 +9743,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F196" t="n">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/08/2022</t>
+          <t>02/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/10/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F201" t="n">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -8399,7 +8399,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F201" t="n">

--- a/data/Nogales.xlsx
+++ b/data/Nogales.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,11 +6247,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
